--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hbegf-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hbegf-Erbb4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.572976999999999</v>
+        <v>5.94498</v>
       </c>
       <c r="H2">
-        <v>22.718931</v>
+        <v>17.83494</v>
       </c>
       <c r="I2">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="J2">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.04809092827566665</v>
+        <v>0.03775260466</v>
       </c>
       <c r="R2">
-        <v>0.4328183544809999</v>
+        <v>0.33977344194</v>
       </c>
       <c r="S2">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="T2">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,13 +599,13 @@
         <v>2.784025666666667</v>
       </c>
       <c r="H3">
-        <v>8.352077000000001</v>
+        <v>8.352077</v>
       </c>
       <c r="I3">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="J3">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>0.159115418927</v>
       </c>
       <c r="S3">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="T3">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.480551000000001</v>
+        <v>3.976005</v>
       </c>
       <c r="H4">
-        <v>19.441653</v>
+        <v>11.928015</v>
       </c>
       <c r="I4">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="J4">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.04115365903366667</v>
+        <v>0.025248957085</v>
       </c>
       <c r="R4">
-        <v>0.370382931303</v>
+        <v>0.227240613765</v>
       </c>
       <c r="S4">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="T4">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
     </row>
   </sheetData>
